--- a/biology/Zoologie/Graffillidae/Graffillidae.xlsx
+++ b/biology/Zoologie/Graffillidae/Graffillidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Graffillidae sont une famille de vers plats aquatiques du sous-ordre des Dalytyphloplanida (ordre des Rhabdocoela). Certaines espèces sont parasites de mollusques.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces sont parasites. Trois espèces du genre Paravortex ont été trouvées dans des mollusques bivalves : la coque blanche et la palourde grise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces sont parasites. Trois espèces du genre Paravortex ont été trouvées dans des mollusques bivalves : la coque blanche et la palourde grise.
 </t>
         </is>
       </c>
@@ -568,20 +584,91 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Graffillidae Graff, 1905[2].
-Sous-taxons
-Selon la base de données World Register of Marine Species                               (22 décembre 2023)[2], la famille des Graffillidae regroupe les sous-familles et genres valides suivants :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Graffillidae Graff, 1905.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Graffillidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graffillidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-taxons</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (22 décembre 2023), la famille des Graffillidae regroupe les sous-familles et genres valides suivants :
 Famille des Graffillidae 
 sous-famille des Graffillinae Graff, 1905
 genre Graffilla Ihering, 1880
 genre Paravortex Wahl, 1906
 sous-famille des Pseudograffillinae Meixner, 1938
 genre Nygulgus Marcus, 1954
-genre Pseudograffilla Meixner, 1938
-Synonymes, reclassements
-La sous-famille des Bresslauillinae Bresslau, 1933 est incertaine, aujourd'hui sans espèce. Le genre type et unique de cette sous-famille,  Bresslauilla Reisinger, 1929, a été sorti de la famille des Graffillidae, tout en restant dans les Dalytyphloplanida.
+genre Pseudograffilla Meixner, 1938</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Graffillidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graffillidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes, reclassements</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La sous-famille des Bresslauillinae Bresslau, 1933 est incertaine, aujourd'hui sans espèce. Le genre type et unique de cette sous-famille,  Bresslauilla Reisinger, 1929, a été sorti de la famille des Graffillidae, tout en restant dans les Dalytyphloplanida.
 Dans la sous-famille des Graffillinae :
 le genre Langia Czerniavsky, 1880 est Graffilla Ihering, 1880
 le genre Proderostoma Hallez, 1908 est Paravortex Wahl, 1906. C'est un nomen nudum, décrit comme Paravortex par Hallez en 1909.</t>
